--- a/docs/assets/disciplinas/LOQ4239.xlsx
+++ b/docs/assets/disciplinas/LOQ4239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir os conceitos fundamentais da ciência administração e de configurações de uma organização.</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,63 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>11079086 - Herlandí de Souza Andrade</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1. Conceitos Fundamentais de Administração.
-2. Noções Básicas de Estratégia.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Teoria Geral de Administração: Histórico. Visão de Taylor. Escola clássica de administração.
-2. Conceitos básicos de Estratégia, Análise SWOT, Balanced ScoreCard, Mapas Estratégicos</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CHIAVENATO, I; SAPIRO, A. Planejamento Estratégico. Rio de Janeiro. Campus, 2004 
-COLLINS, J.C.; PORRAS, J. I. Feitas para Durar: Práticas bem-sucedidas de empresas visionárias. 9ª Ed.  Rio de Janeiro. Rocco, 2007 
-HERRERO, E. Balanced Scorecard e a Gestão Estratégica. Rio de Janeiro. Campus, 2005. 
-KAPLAN, R; NORTON, D. Kaplan e Norton na Prática. Rio de Janeiro. Campus, 2004 
-KAPLAN, R; NORTON, D. A Estratégia em Ação: Balanced Scorecard. Rio de Janeiro. Campus, 1997 
-KAPLAN, R; NORTON, D. Mapas Estratégicos. Rio de Janeiro. Campus, 2004 
-TZU, S. A Arte da Guerra (Edição Completa). São Paulo. WMF Martins Fontes, 2009.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,56 +596,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -680,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -689,28 +675,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4239.xlsx
+++ b/docs/assets/disciplinas/LOQ4239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,38 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir os conceitos fundamentais da ciência administração e de configurações de uma organização.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1. Conceitos Fundamentais de Administração.
+2. Noções Básicas de Estratégia.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Teoria Geral de Administração: Histórico. Visão de Taylor. Escola clássica de administração.
+2. Conceitos básicos de Estratégia, Análise SWOT, Balanced ScoreCard, Mapas Estratégicos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +111,31 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
+    <t>CHIAVENATO, I; SAPIRO, A. Planejamento Estratégico. Rio de Janeiro. Campus, 2004 
+COLLINS, J.C.; PORRAS, J. I. Feitas para Durar: Práticas bem-sucedidas de empresas visionárias. 9ª Ed.  Rio de Janeiro. Rocco, 2007 
+HERRERO, E. Balanced Scorecard e a Gestão Estratégica. Rio de Janeiro. Campus, 2005. 
+KAPLAN, R; NORTON, D. Kaplan e Norton na Prática. Rio de Janeiro. Campus, 2004 
+KAPLAN, R; NORTON, D. A Estratégia em Ação: Balanced Scorecard. Rio de Janeiro. Campus, 1997 
+KAPLAN, R; NORTON, D. Mapas Estratégicos. Rio de Janeiro. Campus, 2004 
+TZU, S. A Arte da Guerra (Edição Completa). São Paulo. WMF Martins Fontes, 2009.</t>
   </si>
 </sst>
 </file>
@@ -471,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,62 +616,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -666,7 +680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -675,6 +689,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
